--- a/biology/Zoologie/Céphalophe_de_Walter/Céphalophe_de_Walter.xlsx
+++ b/biology/Zoologie/Céphalophe_de_Walter/Céphalophe_de_Walter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phalophe_de_Walter</t>
+          <t>Céphalophe_de_Walter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philantomba walteri
 Le Céphalophe de Walter (Philantomba walteri) est une espèce d'antilopes de la sous-famille des Cephalophinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9phalophe_de_Walter</t>
+          <t>Céphalophe_de_Walter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Ouganda et en Tanzanie[1]. Sa présence est incertaine au Bénin, au Nigeria et au Togo, et elle est désormais éteinte en Tunisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Ouganda et en Tanzanie. Sa présence est incertaine au Bénin, au Nigeria et au Togo, et elle est désormais éteinte en Tunisie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9phalophe_de_Walter</t>
+          <t>Céphalophe_de_Walter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,86 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Philantomba walteri Colyn (d), Hulselmans (d), Sonet (d), Oudé (d), de Winter (d), Natta (d), Nagy (d) &amp; Verheyen (d), 2010[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Philantomba walteri Colyn (d), Hulselmans (d), Sonet (d), Oudé (d), de Winter (d), Natta (d), Nagy (d) &amp; Verheyen (d), 2010,.
 Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Céphalophe de Walter.
-Étymologie
-Son épithète spécifique, walteri, ainsi que son nom vernaculaire, « de Walter », lui ont été donné en l'honneur du professeur Walter Verheyen (1932-2005), en reconnaissance de son travail sur les mammifères africains et qui a collecté le premier spécimen à Badou (Togo), en 1968[3].
-Publication originale
-(en) Marc Colyn, Jan Hulselmans, Gontran Sonet, Pascal Oudé, Jan de Winter, Armand Natta, Zoltán Tamás Nagy et Erik Verheyen, « Discovery of a new duiker species (Bovidae: Cephalophinae) from the Dahomey Gap, West Africa », Zootaxa, Magnolia Press (d), vol. 2637, no 1,‎ 6 octobre 2010, p. 1-30 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.2637.1.1, lire en ligne)</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Céphalophe_de_Walter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophe_de_Walter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, walteri, ainsi que son nom vernaculaire, « de Walter », lui ont été donné en l'honneur du professeur Walter Verheyen (1932-2005), en reconnaissance de son travail sur les mammifères africains et qui a collecté le premier spécimen à Badou (Togo), en 1968.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Céphalophe_de_Walter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9phalophe_de_Walter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Marc Colyn, Jan Hulselmans, Gontran Sonet, Pascal Oudé, Jan de Winter, Armand Natta, Zoltán Tamás Nagy et Erik Verheyen, « Discovery of a new duiker species (Bovidae: Cephalophinae) from the Dahomey Gap, West Africa », Zootaxa, Magnolia Press (d), vol. 2637, no 1,‎ 6 octobre 2010, p. 1-30 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.2637.1.1, lire en ligne)</t>
         </is>
       </c>
     </row>
